--- a/S16/_members (2025).xlsx
+++ b/S16/_members (2025).xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Passcode</t>
   </si>
   <si>
-    <t xml:space="preserve">Email</t>
+    <t xml:space="preserve">Username</t>
   </si>
   <si>
     <t xml:space="preserve">member 1</t>
@@ -922,7 +922,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -935,12 +935,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -959,7 +955,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1157,7 +1153,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
-      <selection pane="bottomRight" activeCell="C88" activeCellId="0" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1167,12 +1163,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="21.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,51 +1213,51 @@
       <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="5" t="n">
         <v>802975.382472669</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="3" t="str">
         <f aca="false">CONCATENATE(H2," ",I2)</f>
         <v>ALANAZI Yasir</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="3" t="str">
         <f aca="false">CONCATENATE(K2," ",L2)</f>
         <v>AAOUANE Farah</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="3" t="str">
         <f aca="false">CONCATENATE(N2," ",O2)</f>
         <v>KAMPPARI Samuel</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="S2" s="3" t="str">
@@ -1281,56 +1277,56 @@
         <v>21</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="5" t="n">
         <v>955804.340271945</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="3" t="str">
         <f aca="false">CONCATENATE(H3," ",I3)</f>
         <v>CUDEL Léonie</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="3" t="str">
         <f aca="false">CONCATENATE(K3," ",L3)</f>
         <v>BOBELYN Wout</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="3" t="str">
         <f aca="false">CONCATENATE(N3," ",O3)</f>
         <v>FREDMAN Henrik</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="3" t="str">
         <f aca="false">CONCATENATE(Q3," ",R3)</f>
         <v>HAAPALA Anne</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="V3" s="3" t="str">
@@ -1349,46 +1345,46 @@
         <v>33</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="5" t="n">
         <v>451266.054962523</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="3" t="str">
         <f aca="false">CONCATENATE(H4," ",I4)</f>
         <v>TOBLOU Urielle</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M4" s="3" t="str">
         <f aca="false">CONCATENATE(K4," ",L4)</f>
         <v>BORRé Sarah</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P4" s="3" t="str">
         <f aca="false">CONCATENATE(N4," ",O4)</f>
         <v>ALA-OLLA Roope</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="R4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="S4" s="3" t="str">
@@ -1411,20 +1407,20 @@
         <v>43</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="5" t="n">
         <v>109882.570337404</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J5" s="3" t="str">
         <f aca="false">CONCATENATE(H5," ",I5)</f>
         <v> </v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="M5" s="3" t="str">
@@ -1455,7 +1451,7 @@
         <v>47</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="5" t="n">
         <v>763478.933231578</v>
       </c>
     </row>
@@ -1470,7 +1466,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="5" t="n">
         <v>906569.401452616</v>
       </c>
     </row>
@@ -1485,7 +1481,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="5" t="n">
         <v>566668.857114141</v>
       </c>
     </row>
@@ -1500,7 +1496,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="5" t="n">
         <v>651067.140213711</v>
       </c>
     </row>
@@ -1515,7 +1511,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="5" t="n">
         <v>552288.43721353</v>
       </c>
     </row>
@@ -1530,7 +1526,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="5" t="n">
         <v>480759.091918243</v>
       </c>
     </row>
@@ -1545,7 +1541,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="5" t="n">
         <v>443248.589904883</v>
       </c>
     </row>
@@ -1560,7 +1556,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="5" t="n">
         <v>529144.653443627</v>
       </c>
     </row>
@@ -1575,7 +1571,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="5" t="n">
         <v>396204.92285183</v>
       </c>
     </row>
@@ -1588,7 +1584,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="5" t="n">
         <v>623257.192414307</v>
       </c>
     </row>
@@ -1603,7 +1599,7 @@
         <v>56</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="5" t="n">
         <v>70214.7008728433</v>
       </c>
     </row>
@@ -1616,7 +1612,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="5" t="n">
         <v>747630.491661396</v>
       </c>
     </row>
@@ -1629,7 +1625,7 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="5" t="n">
         <v>824648.506272575</v>
       </c>
     </row>
@@ -1644,46 +1640,46 @@
         <v>57</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="5" t="n">
         <v>49595.1579423887</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="1" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="3" t="str">
         <f aca="false">CONCATENATE(H19," ",I19)</f>
         <v>ESSABER Atim</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M19" s="3" t="str">
         <f aca="false">CONCATENATE(K19," ",L19)</f>
         <v>CIL Kaan</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="N19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="O19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="P19" s="3" t="str">
         <f aca="false">CONCATENATE(N19," ",O19)</f>
         <v>KOPPEL Kätrin</v>
       </c>
-      <c r="Q19" s="0" t="s">
+      <c r="Q19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="R19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="S19" s="3" t="str">
@@ -1706,46 +1702,46 @@
         <v>67</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="5" t="n">
         <v>751644.292809301</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J20" s="3" t="str">
         <f aca="false">CONCATENATE(H20," ",I20)</f>
         <v>BENSAID Ismail</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" s="1" t="s">
         <v>72</v>
       </c>
       <c r="M20" s="3" t="str">
         <f aca="false">CONCATENATE(K20," ",L20)</f>
         <v>DESMET Elia</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="N20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O20" s="0" t="s">
+      <c r="O20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="P20" s="3" t="str">
         <f aca="false">CONCATENATE(N20," ",O20)</f>
         <v>VÄHÄMAA Teemu</v>
       </c>
-      <c r="Q20" s="0" t="s">
+      <c r="Q20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="0" t="s">
+      <c r="R20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="S20" s="3" t="str">
@@ -1768,56 +1764,56 @@
         <v>77</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="5" t="n">
         <v>242150.486357673</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J21" s="3" t="str">
         <f aca="false">CONCATENATE(H21," ",I21)</f>
         <v>GRESSET Charlotte</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="L21" s="1" t="s">
         <v>82</v>
       </c>
       <c r="M21" s="3" t="str">
         <f aca="false">CONCATENATE(K21," ",L21)</f>
         <v>DEWANCKELE Jaro</v>
       </c>
-      <c r="N21" s="0" t="s">
+      <c r="N21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O21" s="0" t="s">
+      <c r="O21" s="1" t="s">
         <v>84</v>
       </c>
       <c r="P21" s="3" t="str">
         <f aca="false">CONCATENATE(N21," ",O21)</f>
         <v>RANTALA Aaro</v>
       </c>
-      <c r="Q21" s="0" t="s">
+      <c r="Q21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R21" s="0" t="s">
+      <c r="R21" s="1" t="s">
         <v>86</v>
       </c>
       <c r="S21" s="3" t="str">
         <f aca="false">CONCATENATE(Q21," ",R21)</f>
         <v>REYMOND KYLIAN</v>
       </c>
-      <c r="T21" s="0" t="s">
+      <c r="T21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="U21" s="0" t="s">
+      <c r="U21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="V21" s="3" t="str">
@@ -1836,56 +1832,56 @@
         <v>89</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="5" t="n">
         <v>282296.297065066</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J22" s="3" t="str">
         <f aca="false">CONCATENATE(H22," ",I22)</f>
         <v>ACERO GOMEZ Julitza</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="L22" s="1" t="s">
         <v>94</v>
       </c>
       <c r="M22" s="3" t="str">
         <f aca="false">CONCATENATE(K22," ",L22)</f>
         <v>DE HOOGHE Annabel</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="N22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O22" s="0" t="s">
+      <c r="O22" s="1" t="s">
         <v>96</v>
       </c>
       <c r="P22" s="3" t="str">
         <f aca="false">CONCATENATE(N22," ",O22)</f>
         <v>VANKKA Joonas</v>
       </c>
-      <c r="Q22" s="0" t="s">
+      <c r="Q22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R22" s="0" t="s">
+      <c r="R22" s="1" t="s">
         <v>98</v>
       </c>
       <c r="S22" s="3" t="str">
         <f aca="false">CONCATENATE(Q22," ",R22)</f>
         <v>GERARD Lucas</v>
       </c>
-      <c r="T22" s="0" t="s">
+      <c r="T22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="U22" s="0" t="s">
+      <c r="U22" s="1" t="s">
         <v>100</v>
       </c>
       <c r="V22" s="3" t="str">
@@ -1904,7 +1900,7 @@
         <v>101</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="5" t="n">
         <v>208153.700721655</v>
       </c>
     </row>
@@ -1919,7 +1915,7 @@
         <v>102</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="5" t="n">
         <v>418063.696147085</v>
       </c>
     </row>
@@ -1934,7 +1930,7 @@
         <v>103</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="5" t="n">
         <v>450145.89410187</v>
       </c>
     </row>
@@ -1949,7 +1945,7 @@
         <v>104</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="5" t="n">
         <v>567181.277705738</v>
       </c>
     </row>
@@ -1964,7 +1960,7 @@
         <v>105</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="5" t="n">
         <v>20643.5329397866</v>
       </c>
     </row>
@@ -1979,7 +1975,7 @@
         <v>106</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="5" t="n">
         <v>795108.603499209</v>
       </c>
     </row>
@@ -1994,7 +1990,7 @@
         <v>107</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="5" t="n">
         <v>375.149369804374</v>
       </c>
     </row>
@@ -2009,7 +2005,7 @@
         <v>108</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="5" t="n">
         <v>769954.391940447</v>
       </c>
     </row>
@@ -2024,7 +2020,7 @@
         <v>109</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="5" t="n">
         <v>943228.120514321</v>
       </c>
     </row>
@@ -2039,7 +2035,7 @@
         <v>110</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="5" t="n">
         <v>777529.235122408</v>
       </c>
     </row>
@@ -2054,7 +2050,7 @@
         <v>111</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="5" t="n">
         <v>177645.896116461</v>
       </c>
     </row>
@@ -2069,7 +2065,7 @@
         <v>112</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="6" t="n">
+      <c r="E34" s="5" t="n">
         <v>701186.64630769</v>
       </c>
     </row>
@@ -2084,7 +2080,7 @@
         <v>113</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="5" t="n">
         <v>891708.123411197</v>
       </c>
     </row>
@@ -2099,7 +2095,7 @@
         <v>114</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="6" t="n">
+      <c r="E36" s="5" t="n">
         <v>480954.383269504</v>
       </c>
     </row>
@@ -2114,46 +2110,46 @@
         <v>115</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="6" t="n">
+      <c r="E37" s="5" t="n">
         <v>226310.349139848</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="1" t="s">
         <v>118</v>
       </c>
       <c r="J37" s="3" t="str">
         <f aca="false">CONCATENATE(H37," ",I37)</f>
         <v>SIPP Lubin</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="K37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="L37" s="1" t="s">
         <v>120</v>
       </c>
       <c r="M37" s="3" t="str">
         <f aca="false">CONCATENATE(K37," ",L37)</f>
         <v>HYSENI Erjon</v>
       </c>
-      <c r="N37" s="0" t="s">
+      <c r="N37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O37" s="0" t="s">
+      <c r="O37" s="1" t="s">
         <v>122</v>
       </c>
       <c r="P37" s="3" t="str">
         <f aca="false">CONCATENATE(N37," ",O37)</f>
         <v>KORKEAKOSKI Miia</v>
       </c>
-      <c r="Q37" s="0" t="s">
+      <c r="Q37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R37" s="0" t="s">
+      <c r="R37" s="1" t="s">
         <v>124</v>
       </c>
       <c r="S37" s="3" t="str">
@@ -2176,46 +2172,46 @@
         <v>125</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="5" t="n">
         <v>979154.180225223</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="I38" s="1" t="s">
         <v>128</v>
       </c>
       <c r="J38" s="3" t="str">
         <f aca="false">CONCATENATE(H38," ",I38)</f>
         <v>MARIN Guillaume</v>
       </c>
-      <c r="K38" s="0" t="s">
+      <c r="K38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="L38" s="1" t="s">
         <v>130</v>
       </c>
       <c r="M38" s="3" t="str">
         <f aca="false">CONCATENATE(K38," ",L38)</f>
         <v>JAWAD Mariane</v>
       </c>
-      <c r="N38" s="0" t="s">
+      <c r="N38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="O38" s="0" t="s">
+      <c r="O38" s="1" t="s">
         <v>132</v>
       </c>
       <c r="P38" s="3" t="str">
         <f aca="false">CONCATENATE(N38," ",O38)</f>
         <v>MÄENSIVU Saku</v>
       </c>
-      <c r="Q38" s="0" t="s">
+      <c r="Q38" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R38" s="0" t="s">
+      <c r="R38" s="1" t="s">
         <v>134</v>
       </c>
       <c r="S38" s="3" t="str">
@@ -2238,7 +2234,7 @@
         <v>135</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="6" t="n">
+      <c r="E39" s="5" t="n">
         <v>529864.263429908</v>
       </c>
     </row>
@@ -2253,7 +2249,7 @@
         <v>136</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="6" t="n">
+      <c r="E40" s="5" t="n">
         <v>764917.043199876</v>
       </c>
     </row>
@@ -2268,7 +2264,7 @@
         <v>137</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="6" t="n">
+      <c r="E41" s="5" t="n">
         <v>369815.377425931</v>
       </c>
     </row>
@@ -2283,7 +2279,7 @@
         <v>138</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="5" t="n">
         <v>852660.599435625</v>
       </c>
     </row>
@@ -2298,7 +2294,7 @@
         <v>139</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="5" t="n">
         <v>444097.164228061</v>
       </c>
     </row>
@@ -2313,7 +2309,7 @@
         <v>140</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="5" t="n">
         <v>276626.702724514</v>
       </c>
     </row>
@@ -2328,56 +2324,56 @@
         <v>141</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="6" t="n">
+      <c r="E45" s="5" t="n">
         <v>508877.055390987</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J45" s="3" t="str">
         <f aca="false">CONCATENATE(H45," ",I45)</f>
         <v>AJARRAY Hamza</v>
       </c>
-      <c r="K45" s="0" t="s">
+      <c r="K45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L45" s="0" t="s">
+      <c r="L45" s="1" t="s">
         <v>146</v>
       </c>
       <c r="M45" s="3" t="str">
         <f aca="false">CONCATENATE(K45," ",L45)</f>
         <v>LACAYSE Kamiel</v>
       </c>
-      <c r="N45" s="0" t="s">
+      <c r="N45" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O45" s="0" t="s">
+      <c r="O45" s="1" t="s">
         <v>148</v>
       </c>
       <c r="P45" s="3" t="str">
         <f aca="false">CONCATENATE(N45," ",O45)</f>
         <v>RINNE Anttoni</v>
       </c>
-      <c r="Q45" s="0" t="s">
+      <c r="Q45" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="R45" s="0" t="s">
+      <c r="R45" s="1" t="s">
         <v>150</v>
       </c>
       <c r="S45" s="3" t="str">
         <f aca="false">CONCATENATE(Q45," ",R45)</f>
         <v>HAUPTMANN ÉRIC</v>
       </c>
-      <c r="T45" s="0" t="s">
+      <c r="T45" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="U45" s="0" t="s">
+      <c r="U45" s="1" t="s">
         <v>152</v>
       </c>
       <c r="V45" s="3" t="str">
@@ -2396,46 +2392,46 @@
         <v>153</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="6" t="n">
+      <c r="E46" s="5" t="n">
         <v>60111.2233924169</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="1" t="s">
         <v>156</v>
       </c>
       <c r="J46" s="3" t="str">
         <f aca="false">CONCATENATE(H46," ",I46)</f>
         <v>PAILLARD Maxime</v>
       </c>
-      <c r="K46" s="0" t="s">
+      <c r="K46" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" s="1" t="s">
         <v>158</v>
       </c>
       <c r="M46" s="3" t="str">
         <f aca="false">CONCATENATE(K46," ",L46)</f>
         <v>JONCKHEERE Anne-Sophie</v>
       </c>
-      <c r="N46" s="0" t="s">
+      <c r="N46" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O46" s="0" t="s">
+      <c r="O46" s="1" t="s">
         <v>160</v>
       </c>
       <c r="P46" s="3" t="str">
         <f aca="false">CONCATENATE(N46," ",O46)</f>
         <v>AALTONEN Jani</v>
       </c>
-      <c r="Q46" s="0" t="s">
+      <c r="Q46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="R46" s="0" t="s">
+      <c r="R46" s="1" t="s">
         <v>162</v>
       </c>
       <c r="S46" s="3" t="str">
@@ -2458,16 +2454,16 @@
         <v>163</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="6" t="n">
+      <c r="E47" s="5" t="n">
         <v>864386.426764805</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J47" s="3" t="str">
@@ -2478,20 +2474,20 @@
         <f aca="false">CONCATENATE(K47," ",L47)</f>
         <v> </v>
       </c>
-      <c r="N47" s="0" t="s">
+      <c r="N47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O47" s="0" t="s">
+      <c r="O47" s="1" t="s">
         <v>168</v>
       </c>
       <c r="P47" s="3" t="str">
         <f aca="false">CONCATENATE(N47," ",O47)</f>
         <v>KARJALAINEN Jere</v>
       </c>
-      <c r="Q47" s="0" t="s">
+      <c r="Q47" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="R47" s="0" t="s">
+      <c r="R47" s="1" t="s">
         <v>170</v>
       </c>
       <c r="S47" s="3" t="str">
@@ -2514,7 +2510,7 @@
         <v>171</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="6" t="n">
+      <c r="E48" s="5" t="n">
         <v>511308.837090815</v>
       </c>
     </row>
@@ -2529,7 +2525,7 @@
         <v>172</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="6" t="n">
+      <c r="E49" s="5" t="n">
         <v>908521.789913416</v>
       </c>
     </row>
@@ -2544,7 +2540,7 @@
         <v>173</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="6" t="n">
+      <c r="E50" s="5" t="n">
         <v>65609.3982717915</v>
       </c>
     </row>
@@ -2559,7 +2555,7 @@
         <v>174</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="6" t="n">
+      <c r="E51" s="5" t="n">
         <v>267500.343391047</v>
       </c>
     </row>
@@ -2574,7 +2570,7 @@
         <v>175</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52" s="6" t="n">
+      <c r="E52" s="5" t="n">
         <v>699415.279626662</v>
       </c>
     </row>
@@ -2589,7 +2585,7 @@
         <v>176</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="6" t="n">
+      <c r="E53" s="5" t="n">
         <v>484289.550587555</v>
       </c>
     </row>
@@ -2604,7 +2600,7 @@
         <v>177</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="6" t="n">
+      <c r="E54" s="5" t="n">
         <v>690657.565270717</v>
       </c>
     </row>
@@ -2619,7 +2615,7 @@
         <v>178</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" s="6" t="n">
+      <c r="E55" s="5" t="n">
         <v>944194.729283117</v>
       </c>
     </row>
@@ -2634,7 +2630,7 @@
         <v>179</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56" s="6" t="n">
+      <c r="E56" s="5" t="n">
         <v>998612.691374319</v>
       </c>
     </row>
@@ -2649,56 +2645,56 @@
         <v>180</v>
       </c>
       <c r="D57" s="4"/>
-      <c r="E57" s="6" t="n">
+      <c r="E57" s="5" t="n">
         <v>673727.394016001</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I57" s="0" t="s">
+      <c r="I57" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J57" s="3" t="str">
         <f aca="false">CONCATENATE(H57," ",I57)</f>
         <v>PERROTIN Nathan</v>
       </c>
-      <c r="K57" s="0" t="s">
+      <c r="K57" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L57" s="0" t="s">
+      <c r="L57" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M57" s="3" t="str">
         <f aca="false">CONCATENATE(K57," ",L57)</f>
         <v>LOOTENS Sarah</v>
       </c>
-      <c r="N57" s="0" t="s">
+      <c r="N57" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="O57" s="0" t="s">
+      <c r="O57" s="1" t="s">
         <v>186</v>
       </c>
       <c r="P57" s="3" t="str">
         <f aca="false">CONCATENATE(N57," ",O57)</f>
         <v>SALMI Santeri</v>
       </c>
-      <c r="Q57" s="0" t="s">
+      <c r="Q57" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="R57" s="0" t="s">
+      <c r="R57" s="1" t="s">
         <v>188</v>
       </c>
       <c r="S57" s="3" t="str">
         <f aca="false">CONCATENATE(Q57," ",R57)</f>
         <v>VEIRMAN Levi</v>
       </c>
-      <c r="T57" s="0" t="s">
+      <c r="T57" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="U57" s="0" t="s">
+      <c r="U57" s="1" t="s">
         <v>190</v>
       </c>
       <c r="V57" s="3" t="str">
@@ -2717,46 +2713,46 @@
         <v>191</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="E58" s="6" t="n">
+      <c r="E58" s="5" t="n">
         <v>742044.989433403</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="H58" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="I58" s="1" t="s">
         <v>194</v>
       </c>
       <c r="J58" s="3" t="str">
         <f aca="false">CONCATENATE(H58," ",I58)</f>
         <v>PUERTO Naomi</v>
       </c>
-      <c r="K58" s="0" t="s">
+      <c r="K58" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L58" s="0" t="s">
+      <c r="L58" s="1" t="s">
         <v>196</v>
       </c>
       <c r="M58" s="3" t="str">
         <f aca="false">CONCATENATE(K58," ",L58)</f>
         <v>SCHERRENS Arne</v>
       </c>
-      <c r="N58" s="0" t="s">
+      <c r="N58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="O58" s="0" t="s">
+      <c r="O58" s="1" t="s">
         <v>198</v>
       </c>
       <c r="P58" s="3" t="str">
         <f aca="false">CONCATENATE(N58," ",O58)</f>
         <v>HELLBERG Matias</v>
       </c>
-      <c r="Q58" s="0" t="s">
+      <c r="Q58" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="R58" s="0" t="s">
+      <c r="R58" s="1" t="s">
         <v>200</v>
       </c>
       <c r="S58" s="3" t="str">
@@ -2779,46 +2775,46 @@
         <v>201</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="6" t="n">
+      <c r="E59" s="5" t="n">
         <v>652440.014717802</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="H59" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I59" s="0" t="s">
+      <c r="I59" s="1" t="s">
         <v>204</v>
       </c>
       <c r="J59" s="3" t="str">
         <f aca="false">CONCATENATE(H59," ",I59)</f>
         <v>RADNA Alexandre</v>
       </c>
-      <c r="K59" s="0" t="s">
+      <c r="K59" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L59" s="0" t="s">
+      <c r="L59" s="1" t="s">
         <v>206</v>
       </c>
       <c r="M59" s="3" t="str">
         <f aca="false">CONCATENATE(K59," ",L59)</f>
         <v>MASSELIS Pauline</v>
       </c>
-      <c r="N59" s="0" t="s">
+      <c r="N59" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O59" s="0" t="s">
+      <c r="O59" s="1" t="s">
         <v>208</v>
       </c>
       <c r="P59" s="3" t="str">
         <f aca="false">CONCATENATE(N59," ",O59)</f>
         <v>FRIGARD Kalle</v>
       </c>
-      <c r="Q59" s="0" t="s">
+      <c r="Q59" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="R59" s="0" t="s">
+      <c r="R59" s="1" t="s">
         <v>210</v>
       </c>
       <c r="S59" s="3" t="str">
@@ -2841,7 +2837,7 @@
         <v>211</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="E60" s="6" t="n">
+      <c r="E60" s="5" t="n">
         <v>391176.7701218</v>
       </c>
       <c r="J60" s="3"/>
@@ -2861,7 +2857,7 @@
         <v>212</v>
       </c>
       <c r="D61" s="4"/>
-      <c r="E61" s="6" t="n">
+      <c r="E61" s="5" t="n">
         <v>976507.674873555</v>
       </c>
       <c r="J61" s="3"/>
@@ -2881,46 +2877,46 @@
         <v>213</v>
       </c>
       <c r="D62" s="4"/>
-      <c r="E62" s="6" t="n">
+      <c r="E62" s="5" t="n">
         <v>896812.103679734</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="H62" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I62" s="0" t="s">
+      <c r="I62" s="1" t="s">
         <v>216</v>
       </c>
       <c r="J62" s="3" t="str">
         <f aca="false">CONCATENATE(H62," ",I62)</f>
         <v>MAURAS Damien</v>
       </c>
-      <c r="K62" s="0" t="s">
+      <c r="K62" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L62" s="0" t="s">
+      <c r="L62" s="1" t="s">
         <v>218</v>
       </c>
       <c r="M62" s="3" t="str">
         <f aca="false">CONCATENATE(K62," ",L62)</f>
         <v>UYTTENDAELE Anke</v>
       </c>
-      <c r="N62" s="0" t="s">
+      <c r="N62" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="O62" s="0" t="s">
+      <c r="O62" s="1" t="s">
         <v>220</v>
       </c>
       <c r="P62" s="3" t="str">
         <f aca="false">CONCATENATE(N62," ",O62)</f>
         <v>HURTTA Pekka</v>
       </c>
-      <c r="Q62" s="0" t="s">
+      <c r="Q62" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="R62" s="0" t="s">
+      <c r="R62" s="1" t="s">
         <v>222</v>
       </c>
       <c r="S62" s="3" t="str">
@@ -2943,46 +2939,46 @@
         <v>223</v>
       </c>
       <c r="D63" s="4"/>
-      <c r="E63" s="6" t="n">
+      <c r="E63" s="5" t="n">
         <v>552485.88315331</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="H63" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I63" s="0" t="s">
+      <c r="I63" s="1" t="s">
         <v>226</v>
       </c>
       <c r="J63" s="3" t="str">
         <f aca="false">CONCATENATE(H63," ",I63)</f>
         <v>SAINTPERE Gaëtan</v>
       </c>
-      <c r="K63" s="0" t="s">
+      <c r="K63" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L63" s="0" t="s">
+      <c r="L63" s="1" t="s">
         <v>228</v>
       </c>
       <c r="M63" s="3" t="str">
         <f aca="false">CONCATENATE(K63," ",L63)</f>
         <v>VAN DEN BOSSCHE Jesse</v>
       </c>
-      <c r="N63" s="0" t="s">
+      <c r="N63" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="O63" s="0" t="s">
+      <c r="O63" s="1" t="s">
         <v>230</v>
       </c>
       <c r="P63" s="3" t="str">
         <f aca="false">CONCATENATE(N63," ",O63)</f>
         <v>MAHLAMÄKI Emilia</v>
       </c>
-      <c r="Q63" s="0" t="s">
+      <c r="Q63" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="R63" s="0" t="s">
+      <c r="R63" s="1" t="s">
         <v>232</v>
       </c>
       <c r="S63" s="3" t="str">
@@ -3005,46 +3001,46 @@
         <v>233</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="6" t="n">
+      <c r="E64" s="5" t="n">
         <v>964142.781285241</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="H64" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I64" s="0" t="s">
+      <c r="I64" s="1" t="s">
         <v>236</v>
       </c>
       <c r="J64" s="3" t="str">
         <f aca="false">CONCATENATE(H64," ",I64)</f>
         <v>SAMID Ihsane</v>
       </c>
-      <c r="K64" s="0" t="s">
+      <c r="K64" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="L64" s="0" t="s">
+      <c r="L64" s="1" t="s">
         <v>238</v>
       </c>
       <c r="M64" s="3" t="str">
         <f aca="false">CONCATENATE(K64," ",L64)</f>
         <v>RINGOOT Lukas</v>
       </c>
-      <c r="N64" s="0" t="s">
+      <c r="N64" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="O64" s="0" t="s">
+      <c r="O64" s="1" t="s">
         <v>240</v>
       </c>
       <c r="P64" s="3" t="str">
         <f aca="false">CONCATENATE(N64," ",O64)</f>
         <v>KARONEN Kasperi</v>
       </c>
-      <c r="Q64" s="0" t="s">
+      <c r="Q64" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="R64" s="0" t="s">
+      <c r="R64" s="1" t="s">
         <v>242</v>
       </c>
       <c r="S64" s="3" t="str">
@@ -3067,7 +3063,7 @@
         <v>243</v>
       </c>
       <c r="D65" s="4"/>
-      <c r="E65" s="6" t="n">
+      <c r="E65" s="5" t="n">
         <v>689820.370694902</v>
       </c>
     </row>
@@ -3082,7 +3078,7 @@
         <v>244</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="6" t="n">
+      <c r="E66" s="5" t="n">
         <v>528295.666754772</v>
       </c>
     </row>
@@ -3097,7 +3093,7 @@
         <v>245</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="6" t="n">
+      <c r="E67" s="5" t="n">
         <v>831643.321075099</v>
       </c>
     </row>
@@ -3112,7 +3108,7 @@
         <v>246</v>
       </c>
       <c r="D68" s="4"/>
-      <c r="E68" s="6" t="n">
+      <c r="E68" s="5" t="n">
         <v>289095.042185713</v>
       </c>
     </row>
@@ -3127,7 +3123,7 @@
         <v>247</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="E69" s="6" t="n">
+      <c r="E69" s="5" t="n">
         <v>982418.28793374</v>
       </c>
     </row>
@@ -3142,7 +3138,7 @@
         <v>248</v>
       </c>
       <c r="D70" s="4"/>
-      <c r="E70" s="6" t="n">
+      <c r="E70" s="5" t="n">
         <v>157854.356062846</v>
       </c>
     </row>
@@ -3157,7 +3153,7 @@
         <v>249</v>
       </c>
       <c r="D71" s="4"/>
-      <c r="E71" s="6" t="n">
+      <c r="E71" s="5" t="n">
         <v>100711.345256161</v>
       </c>
     </row>
@@ -3172,7 +3168,7 @@
         <v>250</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="6" t="n">
+      <c r="E72" s="5" t="n">
         <v>199120.825125476</v>
       </c>
     </row>
@@ -3187,7 +3183,7 @@
         <v>251</v>
       </c>
       <c r="D73" s="4"/>
-      <c r="E73" s="6" t="n">
+      <c r="E73" s="5" t="n">
         <v>966507.807841239</v>
       </c>
     </row>
@@ -3202,7 +3198,7 @@
         <v>252</v>
       </c>
       <c r="D74" s="4"/>
-      <c r="E74" s="6" t="n">
+      <c r="E74" s="5" t="n">
         <v>335561.493258982</v>
       </c>
     </row>
@@ -3217,7 +3213,7 @@
         <v>253</v>
       </c>
       <c r="D75" s="4"/>
-      <c r="E75" s="6" t="n">
+      <c r="E75" s="5" t="n">
         <v>240297.276805031</v>
       </c>
     </row>
@@ -3228,11 +3224,11 @@
       <c r="B76" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="6" t="n">
+      <c r="D76" s="7"/>
+      <c r="E76" s="5" t="n">
         <v>338498.450176425</v>
       </c>
     </row>
@@ -3243,11 +3239,11 @@
       <c r="B77" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="6" t="n">
+      <c r="D77" s="7"/>
+      <c r="E77" s="5" t="n">
         <v>981162.633471125</v>
       </c>
     </row>
@@ -3262,7 +3258,7 @@
         <v>256</v>
       </c>
       <c r="D78" s="4"/>
-      <c r="E78" s="6" t="n">
+      <c r="E78" s="5" t="n">
         <v>851864.644099338</v>
       </c>
     </row>
@@ -3277,7 +3273,7 @@
         <v>257</v>
       </c>
       <c r="D79" s="4"/>
-      <c r="E79" s="6" t="n">
+      <c r="E79" s="5" t="n">
         <v>726502.585934138</v>
       </c>
     </row>
@@ -3292,7 +3288,7 @@
         <v>258</v>
       </c>
       <c r="D80" s="4"/>
-      <c r="E80" s="6" t="n">
+      <c r="E80" s="5" t="n">
         <v>142239.60245409</v>
       </c>
     </row>
@@ -3307,7 +3303,7 @@
         <v>259</v>
       </c>
       <c r="D81" s="4"/>
-      <c r="E81" s="6" t="n">
+      <c r="E81" s="5" t="n">
         <v>730167.807828822</v>
       </c>
     </row>
@@ -3320,7 +3316,7 @@
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="6" t="n">
+      <c r="E82" s="5" t="n">
         <v>585877.993141175</v>
       </c>
     </row>
@@ -3333,7 +3329,7 @@
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="6" t="n">
+      <c r="E83" s="5" t="n">
         <v>965084.068471103</v>
       </c>
     </row>
@@ -3346,7 +3342,7 @@
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="6" t="n">
+      <c r="E84" s="5" t="n">
         <v>512449.495355232</v>
       </c>
     </row>
@@ -3361,17 +3357,17 @@
         <v>261</v>
       </c>
       <c r="D85" s="1"/>
-      <c r="E85" s="6" t="n">
+      <c r="E85" s="5" t="n">
         <v>761566.033490562</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G85" s="6" t="n">
+      <c r="G85" s="5" t="n">
         <f aca="true">1000000*RAND()</f>
-        <v>999374.717274804</v>
-      </c>
-      <c r="H85" s="9" t="s">
+        <v>272219.220023244</v>
+      </c>
+      <c r="H85" s="8" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3385,10 +3381,10 @@
       <c r="C86" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E86" s="10" t="n">
+      <c r="E86" s="9" t="n">
         <v>18123.5300141561</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="6" t="s">
         <v>265</v>
       </c>
     </row>
